--- a/User stories file/Finance -epic.xlsx
+++ b/User stories file/Finance -epic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carmel projects\Playground\Carmel\Playground1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carmel projects\MyGIt\Playground1\User stories file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +164,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,13 +462,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/User stories file/Finance -epic.xlsx
+++ b/User stories file/Finance -epic.xlsx
@@ -29,24 +29,12 @@
     <t>As a finance manager, I want to view the allocated budget so that i can select my quotation.</t>
   </si>
   <si>
-    <t>As a finance manager, I want to view the quotation of the products, so that i can manage the budget.</t>
-  </si>
-  <si>
-    <t>As a finance manager, I need to manage all the companies cash flow so that I can ensure that there are enough funds available to meet the day to day running of the company.</t>
-  </si>
-  <si>
     <t>MONITORING</t>
   </si>
   <si>
-    <t>As a finance manager, I want to keep all the recordings of the companies cash flow so that I can ensure that vendors and creditors are paid correctly and on time.</t>
-  </si>
-  <si>
     <t>ACCOUNTABILITY</t>
   </si>
   <si>
-    <t>As a finance manager, I want to track audit of the vendors so that accountability and transparency can be checked.</t>
-  </si>
-  <si>
     <t>SL NO.</t>
   </si>
   <si>
@@ -59,50 +47,424 @@
     <t>REQUESTING</t>
   </si>
   <si>
-    <t xml:space="preserve">As a Finance Manager, I want to review terms and conditions, so that, can avoid customers getting  in trouble. </t>
-  </si>
-  <si>
-    <t>As a Finance Manager, I want to view registered certificate of the vendor, so that, can check whether genuine or not.</t>
-  </si>
-  <si>
-    <t>As a Finance Manager, I want to get assurance of delivery on time, so that, if cancelled, can get money back.</t>
-  </si>
-  <si>
-    <t>As a Finance Manager, I want  to view customer reviews, so that, flaws and pros can be known.</t>
-  </si>
-  <si>
     <t>MANAGING</t>
   </si>
   <si>
     <t>CONDITIONS</t>
   </si>
   <si>
-    <t>As a Finance manager, I want to view budget report, so that, I can check and match with quotations received.</t>
-  </si>
-  <si>
-    <t>As a finance manager, I want to pay money to the customer on time so that i can keep a healthy relation with the customer.</t>
-  </si>
-  <si>
     <t>RESPONSE</t>
   </si>
   <si>
-    <t>As a finance manager, I need to manage Texas of an organization so that, the organization can create a good corporate relationship with government.</t>
-  </si>
-  <si>
-    <t>As a finance manager, I need to assist managers so that, can make key strategic decisions.</t>
-  </si>
-  <si>
-    <t>As a finance manager, I want to get notifications on each money transaction so that i can monitor each money transactions.</t>
-  </si>
-  <si>
-    <t>As a finance manager, I want to view the pending requests so that i can approve or reject the requests.</t>
+    <r>
+      <t xml:space="preserve">As a finance manager, I want to view the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pending requests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that i can approve or reject the requests.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As a finance manager, I want to get</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> notifications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on each money transaction so that i can </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> each money </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transactions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a Finance manager, I want to view </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>budget report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so that, I can check and match with quotations received.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a finance manager, I need to manage all the companies </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cash flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that I can ensure that there are enough funds available to meet the day to day running of the company.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a finance manager, I need to manage Texas of an organization so that, the organization can create a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good corporate relationship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with government.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a finance manager, I need to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assist managers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that, can make key strategic decisions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a finance manager, I want to view the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quotation of the products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so that i can manage the budget.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a finance manager, I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the customer </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">on time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>so that i can keep a healthy relation with the customer.</t>
+    </r>
+  </si>
+  <si>
+    <t>As a finance manager, I want to keep all the recordings of the companies' cash flow so that I can ensure that vendors and creditors are paid correctly and on time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a finance manager, I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>track audit of the vendors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that accountability and transparency can be checked.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a Finance Manager, I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>review terms and conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so that, can avoid customers getting  in trouble. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a Finance Manager, I want to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view registered certificate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the vendor, so that, can check whether genuine or not.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a Finance Manager, I want to get </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assurance of delivery on time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so that, if cancelled, can get money back.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As a Finance Manager, I want  to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view customer reviews</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so that, flaws and pros can be known.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +489,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,11 +544,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,7 +845,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,39 +856,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,35 +902,35 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,21 +938,21 @@
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,27 +960,27 @@
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
+      <c r="B16" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,11 +990,11 @@
       <c r="A20" s="2">
         <v>6</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -611,11 +1005,11 @@
       <c r="A22" s="2">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
+      <c r="B22" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
